--- a/Excel_files/Input_file_data.xlsx
+++ b/Excel_files/Input_file_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Web Development\Random Projects\CPI_Projects\240715_PRS_Excel\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE316BBA-EE8C-43D0-A3FB-DF9044996426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4820B2-5464-4978-8FE8-8AC011568C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="0" windowWidth="14688" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6312" yWindow="3156" windowWidth="14796" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Excel_files/Input_file_data.xlsx
+++ b/Excel_files/Input_file_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Web Development\Random Projects\CPI_Projects\240715_PRS_Excel\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4820B2-5464-4978-8FE8-8AC011568C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D850871-94F6-460E-A93C-060E1CC86FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6312" yWindow="3156" windowWidth="14796" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel_files/Input_file_data.xlsx
+++ b/Excel_files/Input_file_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Web Development\Random Projects\CPI_Projects\240715_PRS_Excel\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D850871-94F6-460E-A93C-060E1CC86FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EA413C-98A6-4C2E-9CC1-B0A9282ED829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6312" yWindow="3156" windowWidth="14796" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
